--- a/Match_Schedule/Match Schedule.xlsx
+++ b/Match_Schedule/Match Schedule.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
         <v>44499.41666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>3476</v>
       </c>
       <c r="D2" t="n">
-        <v>649</v>
+        <v>973</v>
       </c>
       <c r="E2" t="n">
-        <v>1671</v>
+        <v>2910</v>
       </c>
       <c r="F2" t="n">
+        <v>3859</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3374</v>
+      </c>
+      <c r="H2" t="n">
         <v>1619</v>
-      </c>
-      <c r="G2" t="n">
-        <v>973</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5026</v>
       </c>
     </row>
     <row r="3">
@@ -512,22 +512,22 @@
         <v>44499.42291666667</v>
       </c>
       <c r="C3" t="n">
-        <v>1351</v>
+        <v>5507</v>
       </c>
       <c r="D3" t="n">
-        <v>254</v>
+        <v>2102</v>
       </c>
       <c r="E3" t="n">
-        <v>3476</v>
+        <v>971</v>
       </c>
       <c r="F3" t="n">
-        <v>2168</v>
+        <v>115</v>
       </c>
       <c r="G3" t="n">
-        <v>2910</v>
+        <v>4499</v>
       </c>
       <c r="H3" t="n">
-        <v>604</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="4">
@@ -538,22 +538,22 @@
         <v>44499.42916666667</v>
       </c>
       <c r="C4" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D4" t="n">
         <v>5104</v>
       </c>
-      <c r="D4" t="n">
-        <v>4499</v>
-      </c>
       <c r="E4" t="n">
-        <v>971</v>
+        <v>6328</v>
       </c>
       <c r="F4" t="n">
-        <v>5460</v>
+        <v>5940</v>
       </c>
       <c r="G4" t="n">
-        <v>1690</v>
+        <v>5026</v>
       </c>
       <c r="H4" t="n">
-        <v>2102</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>44499.43541666667</v>
       </c>
       <c r="C5" t="n">
-        <v>3256</v>
+        <v>1671</v>
       </c>
       <c r="D5" t="n">
-        <v>5507</v>
+        <v>5419</v>
       </c>
       <c r="E5" t="n">
-        <v>8736</v>
+        <v>114</v>
       </c>
       <c r="F5" t="n">
-        <v>3374</v>
+        <v>8033</v>
       </c>
       <c r="G5" t="n">
-        <v>6328</v>
+        <v>2168</v>
       </c>
       <c r="H5" t="n">
-        <v>114</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="6">
@@ -590,22 +590,22 @@
         <v>44499.44166666667</v>
       </c>
       <c r="C6" t="n">
-        <v>3647</v>
+        <v>2659</v>
       </c>
       <c r="D6" t="n">
-        <v>670</v>
+        <v>5460</v>
       </c>
       <c r="E6" t="n">
-        <v>3538</v>
+        <v>254</v>
       </c>
       <c r="F6" t="n">
-        <v>8033</v>
+        <v>4414</v>
       </c>
       <c r="G6" t="n">
         <v>846</v>
       </c>
       <c r="H6" t="n">
-        <v>5940</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
         <v>44499.44791666666</v>
       </c>
       <c r="C7" t="n">
-        <v>1868</v>
+        <v>670</v>
       </c>
       <c r="D7" t="n">
-        <v>4414</v>
+        <v>1072</v>
       </c>
       <c r="E7" t="n">
-        <v>1700</v>
+        <v>3538</v>
       </c>
       <c r="F7" t="n">
-        <v>2135</v>
+        <v>3647</v>
       </c>
       <c r="G7" t="n">
-        <v>1072</v>
+        <v>8736</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -645,19 +645,19 @@
         <v>1678</v>
       </c>
       <c r="D8" t="n">
-        <v>3859</v>
+        <v>971</v>
       </c>
       <c r="E8" t="n">
-        <v>1671</v>
+        <v>2910</v>
       </c>
       <c r="F8" t="n">
-        <v>5419</v>
+        <v>604</v>
       </c>
       <c r="G8" t="n">
-        <v>2659</v>
+        <v>649</v>
       </c>
       <c r="H8" t="n">
-        <v>254</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="9">
@@ -668,22 +668,22 @@
         <v>44499.45989583333</v>
       </c>
       <c r="C9" t="n">
-        <v>4499</v>
+        <v>1690</v>
       </c>
       <c r="D9" t="n">
-        <v>2102</v>
+        <v>5940</v>
       </c>
       <c r="E9" t="n">
-        <v>3374</v>
+        <v>254</v>
       </c>
       <c r="F9" t="n">
-        <v>5026</v>
+        <v>846</v>
       </c>
       <c r="G9" t="n">
-        <v>3476</v>
+        <v>5460</v>
       </c>
       <c r="H9" t="n">
-        <v>8033</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="10">
@@ -694,22 +694,22 @@
         <v>44499.465625</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>2168</v>
       </c>
       <c r="D10" t="n">
-        <v>1868</v>
+        <v>2659</v>
       </c>
       <c r="E10" t="n">
-        <v>115</v>
+        <v>2135</v>
       </c>
       <c r="F10" t="n">
-        <v>5104</v>
+        <v>6328</v>
       </c>
       <c r="G10" t="n">
+        <v>5026</v>
+      </c>
+      <c r="H10" t="n">
         <v>670</v>
-      </c>
-      <c r="H10" t="n">
-        <v>604</v>
       </c>
     </row>
     <row r="11">
@@ -720,22 +720,22 @@
         <v>44499.47135416666</v>
       </c>
       <c r="C11" t="n">
+        <v>114</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8736</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3476</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4499</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3647</v>
+      </c>
+      <c r="H11" t="n">
         <v>5507</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2659</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5940</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1351</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1690</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5419</v>
       </c>
     </row>
     <row r="12">
@@ -746,22 +746,22 @@
         <v>44499.47708333333</v>
       </c>
       <c r="C12" t="n">
-        <v>5460</v>
+        <v>1868</v>
       </c>
       <c r="D12" t="n">
-        <v>3256</v>
+        <v>3538</v>
       </c>
       <c r="E12" t="n">
-        <v>1700</v>
+        <v>1619</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>2102</v>
       </c>
       <c r="G12" t="n">
         <v>1678</v>
       </c>
       <c r="H12" t="n">
-        <v>973</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="13">
@@ -772,22 +772,22 @@
         <v>44499.4828125</v>
       </c>
       <c r="C13" t="n">
-        <v>3859</v>
+        <v>649</v>
       </c>
       <c r="D13" t="n">
-        <v>1072</v>
+        <v>973</v>
       </c>
       <c r="E13" t="n">
-        <v>2168</v>
+        <v>4414</v>
       </c>
       <c r="F13" t="n">
-        <v>3538</v>
+        <v>1351</v>
       </c>
       <c r="G13" t="n">
-        <v>2135</v>
+        <v>115</v>
       </c>
       <c r="H13" t="n">
-        <v>846</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -798,22 +798,22 @@
         <v>44499.48854166667</v>
       </c>
       <c r="C14" t="n">
-        <v>6328</v>
+        <v>5419</v>
       </c>
       <c r="D14" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="E14" t="n">
-        <v>1619</v>
+        <v>3374</v>
       </c>
       <c r="F14" t="n">
-        <v>3647</v>
+        <v>5104</v>
       </c>
       <c r="G14" t="n">
-        <v>4414</v>
+        <v>1072</v>
       </c>
       <c r="H14" t="n">
-        <v>8736</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="15">
@@ -824,22 +824,22 @@
         <v>44499.49427083333</v>
       </c>
       <c r="C15" t="n">
+        <v>2102</v>
+      </c>
+      <c r="D15" t="n">
         <v>2910</v>
       </c>
-      <c r="D15" t="n">
-        <v>3256</v>
-      </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>5026</v>
       </c>
       <c r="F15" t="n">
-        <v>971</v>
+        <v>3647</v>
       </c>
       <c r="G15" t="n">
         <v>5940</v>
       </c>
       <c r="H15" t="n">
-        <v>254</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         <v>44499.54166666666</v>
       </c>
       <c r="C16" t="n">
-        <v>5026</v>
+        <v>115</v>
       </c>
       <c r="D16" t="n">
-        <v>1072</v>
+        <v>973</v>
       </c>
       <c r="E16" t="n">
-        <v>1671</v>
+        <v>1619</v>
       </c>
       <c r="F16" t="n">
-        <v>604</v>
+        <v>6328</v>
       </c>
       <c r="G16" t="n">
-        <v>3476</v>
+        <v>4499</v>
       </c>
       <c r="H16" t="n">
-        <v>4499</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="17">
@@ -876,22 +876,22 @@
         <v>44499.54739583333</v>
       </c>
       <c r="C17" t="n">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>3647</v>
+        <v>1678</v>
       </c>
       <c r="E17" t="n">
-        <v>1351</v>
+        <v>2135</v>
       </c>
       <c r="F17" t="n">
-        <v>3859</v>
+        <v>5460</v>
       </c>
       <c r="G17" t="n">
-        <v>2102</v>
+        <v>8736</v>
       </c>
       <c r="H17" t="n">
-        <v>1700</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="18">
@@ -902,22 +902,22 @@
         <v>44499.553125</v>
       </c>
       <c r="C18" t="n">
-        <v>1690</v>
+        <v>254</v>
       </c>
       <c r="D18" t="n">
+        <v>846</v>
+      </c>
+      <c r="E18" t="n">
+        <v>649</v>
+      </c>
+      <c r="F18" t="n">
         <v>2168</v>
       </c>
-      <c r="E18" t="n">
-        <v>973</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5104</v>
-      </c>
       <c r="G18" t="n">
-        <v>8736</v>
+        <v>5507</v>
       </c>
       <c r="H18" t="n">
-        <v>114</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="19">
@@ -928,22 +928,22 @@
         <v>44499.55885416667</v>
       </c>
       <c r="C19" t="n">
-        <v>1619</v>
+        <v>3374</v>
       </c>
       <c r="D19" t="n">
-        <v>846</v>
+        <v>1351</v>
       </c>
       <c r="E19" t="n">
-        <v>1678</v>
+        <v>1690</v>
       </c>
       <c r="F19" t="n">
-        <v>3374</v>
+        <v>670</v>
       </c>
       <c r="G19" t="n">
-        <v>2910</v>
+        <v>1868</v>
       </c>
       <c r="H19" t="n">
-        <v>5460</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -954,22 +954,22 @@
         <v>44499.56458333333</v>
       </c>
       <c r="C20" t="n">
-        <v>6328</v>
+        <v>8033</v>
       </c>
       <c r="D20" t="n">
-        <v>2135</v>
+        <v>3538</v>
       </c>
       <c r="E20" t="n">
-        <v>5507</v>
+        <v>4414</v>
       </c>
       <c r="F20" t="n">
-        <v>1868</v>
+        <v>971</v>
       </c>
       <c r="G20" t="n">
-        <v>670</v>
+        <v>3859</v>
       </c>
       <c r="H20" t="n">
-        <v>5419</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21">
@@ -980,22 +980,22 @@
         <v>44499.5703125</v>
       </c>
       <c r="C21" t="n">
-        <v>2659</v>
+        <v>5104</v>
       </c>
       <c r="D21" t="n">
-        <v>3538</v>
+        <v>1700</v>
       </c>
       <c r="E21" t="n">
-        <v>8033</v>
+        <v>5460</v>
       </c>
       <c r="F21" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="G21" t="n">
-        <v>4414</v>
+        <v>1619</v>
       </c>
       <c r="H21" t="n">
-        <v>971</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="22">
@@ -1006,22 +1006,22 @@
         <v>44499.57604166667</v>
       </c>
       <c r="C22" t="n">
-        <v>3374</v>
+        <v>5026</v>
       </c>
       <c r="D22" t="n">
-        <v>8736</v>
+        <v>2135</v>
       </c>
       <c r="E22" t="n">
-        <v>1351</v>
+        <v>1671</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>2102</v>
       </c>
       <c r="G22" t="n">
-        <v>5460</v>
+        <v>846</v>
       </c>
       <c r="H22" t="n">
-        <v>254</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -1032,22 +1032,22 @@
         <v>44499.58177083333</v>
       </c>
       <c r="C23" t="n">
-        <v>1690</v>
+        <v>1072</v>
       </c>
       <c r="D23" t="n">
-        <v>115</v>
+        <v>3476</v>
       </c>
       <c r="E23" t="n">
-        <v>5026</v>
+        <v>1351</v>
       </c>
       <c r="F23" t="n">
-        <v>6328</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>3647</v>
+        <v>971</v>
       </c>
       <c r="H23" t="n">
-        <v>2168</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="24">
@@ -1058,22 +1058,22 @@
         <v>44499.58697916667</v>
       </c>
       <c r="C24" t="n">
-        <v>604</v>
+        <v>5940</v>
       </c>
       <c r="D24" t="n">
-        <v>1619</v>
+        <v>8736</v>
       </c>
       <c r="E24" t="n">
-        <v>971</v>
+        <v>2168</v>
       </c>
       <c r="F24" t="n">
-        <v>4499</v>
+        <v>3374</v>
       </c>
       <c r="G24" t="n">
-        <v>1678</v>
+        <v>1700</v>
       </c>
       <c r="H24" t="n">
-        <v>5507</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="25">
@@ -1084,22 +1084,22 @@
         <v>44499.5921875</v>
       </c>
       <c r="C25" t="n">
-        <v>2659</v>
+        <v>604</v>
       </c>
       <c r="D25" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5104</v>
+      </c>
+      <c r="F25" t="n">
         <v>973</v>
       </c>
-      <c r="E25" t="n">
-        <v>649</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1072</v>
-      </c>
       <c r="G25" t="n">
-        <v>5419</v>
+        <v>8033</v>
       </c>
       <c r="H25" t="n">
-        <v>846</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -1110,19 +1110,19 @@
         <v>44499.59739583333</v>
       </c>
       <c r="C26" t="n">
-        <v>1700</v>
+        <v>6328</v>
       </c>
       <c r="D26" t="n">
-        <v>2135</v>
+        <v>115</v>
       </c>
       <c r="E26" t="n">
-        <v>5940</v>
+        <v>2910</v>
       </c>
       <c r="F26" t="n">
-        <v>114</v>
+        <v>1690</v>
       </c>
       <c r="G26" t="n">
-        <v>8033</v>
+        <v>3538</v>
       </c>
       <c r="H26" t="n">
         <v>3859</v>
@@ -1136,22 +1136,22 @@
         <v>44499.60260416667</v>
       </c>
       <c r="C27" t="n">
-        <v>2102</v>
+        <v>649</v>
       </c>
       <c r="D27" t="n">
-        <v>3476</v>
+        <v>1868</v>
       </c>
       <c r="E27" t="n">
-        <v>1671</v>
+        <v>5507</v>
       </c>
       <c r="F27" t="n">
-        <v>3256</v>
+        <v>5419</v>
       </c>
       <c r="G27" t="n">
         <v>670</v>
       </c>
       <c r="H27" t="n">
-        <v>4414</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>44499.6078125</v>
       </c>
       <c r="C28" t="n">
-        <v>3538</v>
+        <v>4414</v>
       </c>
       <c r="D28" t="n">
-        <v>2910</v>
+        <v>2102</v>
       </c>
       <c r="E28" t="n">
-        <v>5026</v>
+        <v>2168</v>
       </c>
       <c r="F28" t="n">
-        <v>1868</v>
+        <v>1072</v>
       </c>
       <c r="G28" t="n">
-        <v>5104</v>
+        <v>973</v>
       </c>
       <c r="H28" t="n">
-        <v>1690</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29">
@@ -1188,22 +1188,22 @@
         <v>44499.61302083333</v>
       </c>
       <c r="C29" t="n">
-        <v>649</v>
+        <v>1671</v>
       </c>
       <c r="D29" t="n">
-        <v>254</v>
+        <v>3374</v>
       </c>
       <c r="E29" t="n">
-        <v>2135</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>5940</v>
+        <v>1700</v>
       </c>
       <c r="G29" t="n">
-        <v>115</v>
+        <v>1678</v>
       </c>
       <c r="H29" t="n">
-        <v>1678</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="30">
@@ -1214,22 +1214,22 @@
         <v>44499.61822916667</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>3647</v>
       </c>
       <c r="D30" t="n">
-        <v>971</v>
+        <v>1619</v>
       </c>
       <c r="E30" t="n">
-        <v>8033</v>
+        <v>846</v>
       </c>
       <c r="F30" t="n">
-        <v>6328</v>
+        <v>1351</v>
       </c>
       <c r="G30" t="n">
-        <v>846</v>
+        <v>3859</v>
       </c>
       <c r="H30" t="n">
-        <v>604</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="31">
@@ -1240,22 +1240,22 @@
         <v>44499.6234375</v>
       </c>
       <c r="C31" t="n">
-        <v>670</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
-        <v>973</v>
+        <v>6328</v>
       </c>
       <c r="E31" t="n">
-        <v>2102</v>
+        <v>2135</v>
       </c>
       <c r="F31" t="n">
+        <v>3538</v>
+      </c>
+      <c r="G31" t="n">
         <v>2910</v>
       </c>
-      <c r="G31" t="n">
-        <v>8736</v>
-      </c>
       <c r="H31" t="n">
-        <v>2659</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="32">
@@ -1266,22 +1266,22 @@
         <v>44499.62864583333</v>
       </c>
       <c r="C32" t="n">
-        <v>1619</v>
+        <v>8033</v>
       </c>
       <c r="D32" t="n">
-        <v>1072</v>
+        <v>5940</v>
       </c>
       <c r="E32" t="n">
-        <v>3476</v>
+        <v>971</v>
       </c>
       <c r="F32" t="n">
         <v>5507</v>
       </c>
       <c r="G32" t="n">
-        <v>3859</v>
+        <v>670</v>
       </c>
       <c r="H32" t="n">
-        <v>5104</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="33">
@@ -1292,22 +1292,22 @@
         <v>44499.63385416667</v>
       </c>
       <c r="C33" t="n">
-        <v>3256</v>
+        <v>5026</v>
       </c>
       <c r="D33" t="n">
-        <v>3647</v>
+        <v>3476</v>
       </c>
       <c r="E33" t="n">
-        <v>3374</v>
+        <v>5460</v>
       </c>
       <c r="F33" t="n">
-        <v>1351</v>
+        <v>115</v>
       </c>
       <c r="G33" t="n">
-        <v>1868</v>
+        <v>8736</v>
       </c>
       <c r="H33" t="n">
-        <v>4499</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34">
@@ -1318,22 +1318,22 @@
         <v>44499.66666666666</v>
       </c>
       <c r="C34" t="n">
-        <v>2168</v>
+        <v>1868</v>
       </c>
       <c r="D34" t="n">
-        <v>5460</v>
+        <v>1690</v>
       </c>
       <c r="E34" t="n">
-        <v>114</v>
+        <v>2102</v>
       </c>
       <c r="F34" t="n">
-        <v>5419</v>
+        <v>254</v>
       </c>
       <c r="G34" t="n">
-        <v>3538</v>
+        <v>4414</v>
       </c>
       <c r="H34" t="n">
-        <v>1671</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="35">
@@ -1344,22 +1344,22 @@
         <v>44499.671875</v>
       </c>
       <c r="C35" t="n">
-        <v>4414</v>
+        <v>5419</v>
       </c>
       <c r="D35" t="n">
-        <v>2910</v>
+        <v>8033</v>
       </c>
       <c r="E35" t="n">
+        <v>2659</v>
+      </c>
+      <c r="F35" t="n">
         <v>5940</v>
       </c>
-      <c r="F35" t="n">
-        <v>1700</v>
-      </c>
       <c r="G35" t="n">
-        <v>5507</v>
+        <v>3374</v>
       </c>
       <c r="H35" t="n">
-        <v>5026</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="36">
@@ -1370,22 +1370,22 @@
         <v>44499.67708333334</v>
       </c>
       <c r="C36" t="n">
-        <v>2102</v>
+        <v>3647</v>
       </c>
       <c r="D36" t="n">
-        <v>604</v>
+        <v>1700</v>
       </c>
       <c r="E36" t="n">
-        <v>3256</v>
+        <v>973</v>
       </c>
       <c r="F36" t="n">
-        <v>1690</v>
+        <v>670</v>
       </c>
       <c r="G36" t="n">
-        <v>846</v>
+        <v>5460</v>
       </c>
       <c r="H36" t="n">
-        <v>649</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="37">
@@ -1396,22 +1396,22 @@
         <v>44499.68229166666</v>
       </c>
       <c r="C37" t="n">
-        <v>3538</v>
+        <v>8736</v>
       </c>
       <c r="D37" t="n">
-        <v>3859</v>
+        <v>604</v>
       </c>
       <c r="E37" t="n">
+        <v>846</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3476</v>
+      </c>
+      <c r="G37" t="n">
         <v>6328</v>
       </c>
-      <c r="F37" t="n">
-        <v>973</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3476</v>
-      </c>
       <c r="H37" t="n">
-        <v>3374</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="38">
@@ -1422,22 +1422,22 @@
         <v>44499.6875</v>
       </c>
       <c r="C38" t="n">
-        <v>5460</v>
+        <v>4499</v>
       </c>
       <c r="D38" t="n">
-        <v>8736</v>
+        <v>1868</v>
       </c>
       <c r="E38" t="n">
-        <v>115</v>
+        <v>1351</v>
       </c>
       <c r="F38" t="n">
-        <v>3647</v>
+        <v>5507</v>
       </c>
       <c r="G38" t="n">
+        <v>2910</v>
+      </c>
+      <c r="H38" t="n">
         <v>1072</v>
-      </c>
-      <c r="H38" t="n">
-        <v>8033</v>
       </c>
     </row>
     <row r="39">
@@ -1448,22 +1448,22 @@
         <v>44499.69270833334</v>
       </c>
       <c r="C39" t="n">
-        <v>5419</v>
+        <v>114</v>
       </c>
       <c r="D39" t="n">
-        <v>2168</v>
+        <v>649</v>
       </c>
       <c r="E39" t="n">
-        <v>4499</v>
+        <v>3859</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>1619</v>
       </c>
       <c r="G39" t="n">
-        <v>670</v>
+        <v>1678</v>
       </c>
       <c r="H39" t="n">
-        <v>1700</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="40">
@@ -1474,22 +1474,22 @@
         <v>44499.69791666666</v>
       </c>
       <c r="C40" t="n">
-        <v>1868</v>
+        <v>5026</v>
       </c>
       <c r="D40" t="n">
-        <v>1678</v>
+        <v>971</v>
       </c>
       <c r="E40" t="n">
+        <v>115</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H40" t="n">
         <v>254</v>
-      </c>
-      <c r="F40" t="n">
-        <v>114</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2659</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4414</v>
       </c>
     </row>
     <row r="41">
@@ -1500,22 +1500,22 @@
         <v>44499.703125</v>
       </c>
       <c r="C41" t="n">
+        <v>4414</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4499</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3476</v>
+      </c>
+      <c r="F41" t="n">
         <v>2135</v>
       </c>
-      <c r="D41" t="n">
-        <v>1351</v>
-      </c>
-      <c r="E41" t="n">
-        <v>971</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1619</v>
-      </c>
       <c r="G41" t="n">
-        <v>1671</v>
+        <v>604</v>
       </c>
       <c r="H41" t="n">
-        <v>5104</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="42">
@@ -1526,22 +1526,22 @@
         <v>44499.70833333334</v>
       </c>
       <c r="C42" t="n">
-        <v>5419</v>
+        <v>3859</v>
       </c>
       <c r="D42" t="n">
-        <v>5507</v>
+        <v>1700</v>
       </c>
       <c r="E42" t="n">
-        <v>2910</v>
+        <v>670</v>
       </c>
       <c r="F42" t="n">
-        <v>5026</v>
+        <v>1072</v>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="H42" t="n">
-        <v>649</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="43">
@@ -1552,22 +1552,22 @@
         <v>44499.71354166666</v>
       </c>
       <c r="C43" t="n">
-        <v>604</v>
+        <v>973</v>
       </c>
       <c r="D43" t="n">
-        <v>3374</v>
+        <v>1868</v>
       </c>
       <c r="E43" t="n">
-        <v>4414</v>
+        <v>5104</v>
       </c>
       <c r="F43" t="n">
-        <v>5940</v>
+        <v>3538</v>
       </c>
       <c r="G43" t="n">
-        <v>3647</v>
+        <v>846</v>
       </c>
       <c r="H43" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="44">
@@ -1578,22 +1578,22 @@
         <v>44499.71875</v>
       </c>
       <c r="C44" t="n">
-        <v>1868</v>
+        <v>1351</v>
       </c>
       <c r="D44" t="n">
-        <v>8033</v>
+        <v>1678</v>
       </c>
       <c r="E44" t="n">
-        <v>1619</v>
+        <v>8736</v>
       </c>
       <c r="F44" t="n">
-        <v>1690</v>
+        <v>5940</v>
       </c>
       <c r="G44" t="n">
-        <v>254</v>
+        <v>1671</v>
       </c>
       <c r="H44" t="n">
-        <v>1671</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -1604,22 +1604,22 @@
         <v>44499.72395833334</v>
       </c>
       <c r="C45" t="n">
-        <v>1700</v>
+        <v>1619</v>
       </c>
       <c r="D45" t="n">
-        <v>6328</v>
+        <v>8033</v>
       </c>
       <c r="E45" t="n">
-        <v>1351</v>
+        <v>5507</v>
       </c>
       <c r="F45" t="n">
-        <v>1072</v>
+        <v>5026</v>
       </c>
       <c r="G45" t="n">
-        <v>2102</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>3538</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="46">
@@ -1630,22 +1630,22 @@
         <v>44499.72916666666</v>
       </c>
       <c r="C46" t="n">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="D46" t="n">
-        <v>670</v>
+        <v>3374</v>
       </c>
       <c r="E46" t="n">
-        <v>2168</v>
+        <v>2102</v>
       </c>
       <c r="F46" t="n">
-        <v>1678</v>
+        <v>649</v>
       </c>
       <c r="G46" t="n">
-        <v>971</v>
+        <v>5419</v>
       </c>
       <c r="H46" t="n">
-        <v>3256</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="47">
@@ -1656,22 +1656,22 @@
         <v>44499.734375</v>
       </c>
       <c r="C47" t="n">
+        <v>3647</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F47" t="n">
         <v>2659</v>
       </c>
-      <c r="D47" t="n">
+      <c r="G47" t="n">
         <v>5104</v>
       </c>
-      <c r="E47" t="n">
-        <v>5460</v>
-      </c>
-      <c r="F47" t="n">
-        <v>8736</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4499</v>
-      </c>
       <c r="H47" t="n">
-        <v>2135</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="48">
@@ -1682,22 +1682,22 @@
         <v>44499.73958333334</v>
       </c>
       <c r="C48" t="n">
-        <v>846</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
+        <v>604</v>
+      </c>
+      <c r="E48" t="n">
         <v>3859</v>
       </c>
-      <c r="E48" t="n">
-        <v>8</v>
-      </c>
       <c r="F48" t="n">
-        <v>3476</v>
+        <v>5026</v>
       </c>
       <c r="G48" t="n">
-        <v>114</v>
+        <v>8736</v>
       </c>
       <c r="H48" t="n">
-        <v>1690</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="49">
@@ -1708,22 +1708,22 @@
         <v>44499.74479166666</v>
       </c>
       <c r="C49" t="n">
-        <v>1072</v>
+        <v>6328</v>
       </c>
       <c r="D49" t="n">
-        <v>3374</v>
+        <v>1671</v>
       </c>
       <c r="E49" t="n">
-        <v>1868</v>
+        <v>3538</v>
       </c>
       <c r="F49" t="n">
-        <v>3256</v>
+        <v>4414</v>
       </c>
       <c r="G49" t="n">
-        <v>1671</v>
+        <v>5507</v>
       </c>
       <c r="H49" t="n">
-        <v>2168</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="50">
@@ -1734,22 +1734,22 @@
         <v>44499.75</v>
       </c>
       <c r="C50" t="n">
-        <v>2135</v>
+        <v>846</v>
       </c>
       <c r="D50" t="n">
-        <v>2102</v>
+        <v>2659</v>
       </c>
       <c r="E50" t="n">
-        <v>3647</v>
+        <v>115</v>
       </c>
       <c r="F50" t="n">
-        <v>254</v>
+        <v>1700</v>
       </c>
       <c r="G50" t="n">
-        <v>973</v>
+        <v>8033</v>
       </c>
       <c r="H50" t="n">
-        <v>5507</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="51">
@@ -1760,22 +1760,22 @@
         <v>44499.75520833334</v>
       </c>
       <c r="C51" t="n">
-        <v>4414</v>
+        <v>670</v>
       </c>
       <c r="D51" t="n">
-        <v>3538</v>
+        <v>2168</v>
       </c>
       <c r="E51" t="n">
-        <v>5104</v>
+        <v>971</v>
       </c>
       <c r="F51" t="n">
+        <v>1619</v>
+      </c>
+      <c r="G51" t="n">
         <v>5419</v>
       </c>
-      <c r="G51" t="n">
-        <v>604</v>
-      </c>
       <c r="H51" t="n">
-        <v>115</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="52">
@@ -1786,22 +1786,22 @@
         <v>44499.76041666666</v>
       </c>
       <c r="C52" t="n">
-        <v>2659</v>
+        <v>3374</v>
       </c>
       <c r="D52" t="n">
-        <v>3476</v>
+        <v>4499</v>
       </c>
       <c r="E52" t="n">
-        <v>1700</v>
+        <v>114</v>
       </c>
       <c r="F52" t="n">
-        <v>5940</v>
+        <v>1351</v>
       </c>
       <c r="G52" t="n">
-        <v>5460</v>
+        <v>254</v>
       </c>
       <c r="H52" t="n">
-        <v>1619</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="53">
@@ -1809,25 +1809,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44499.765625</v>
+        <v>44500.39583333334</v>
       </c>
       <c r="C53" t="n">
-        <v>846</v>
+        <v>649</v>
       </c>
       <c r="D53" t="n">
-        <v>5026</v>
+        <v>5940</v>
       </c>
       <c r="E53" t="n">
-        <v>670</v>
+        <v>1072</v>
       </c>
       <c r="F53" t="n">
-        <v>3859</v>
+        <v>2135</v>
       </c>
       <c r="G53" t="n">
-        <v>1351</v>
+        <v>1690</v>
       </c>
       <c r="H53" t="n">
-        <v>649</v>
+        <v>973</v>
       </c>
     </row>
     <row r="54">
@@ -1835,25 +1835,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44499.77083333334</v>
+        <v>44500.40138888889</v>
       </c>
       <c r="C54" t="n">
-        <v>114</v>
+        <v>5419</v>
       </c>
       <c r="D54" t="n">
+        <v>5026</v>
+      </c>
+      <c r="E54" t="n">
         <v>1678</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>4414</v>
+      </c>
+      <c r="G54" t="n">
+        <v>670</v>
+      </c>
+      <c r="H54" t="n">
         <v>2910</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6328</v>
-      </c>
-      <c r="G54" t="n">
-        <v>8033</v>
-      </c>
-      <c r="H54" t="n">
-        <v>4499</v>
       </c>
     </row>
     <row r="55">
@@ -1861,25 +1861,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44500.39583333334</v>
+        <v>44500.40694444445</v>
       </c>
       <c r="C55" t="n">
-        <v>8736</v>
+        <v>5507</v>
       </c>
       <c r="D55" t="n">
-        <v>973</v>
+        <v>3859</v>
       </c>
       <c r="E55" t="n">
-        <v>5419</v>
+        <v>115</v>
       </c>
       <c r="F55" t="n">
-        <v>971</v>
+        <v>5104</v>
       </c>
       <c r="G55" t="n">
-        <v>3476</v>
+        <v>846</v>
       </c>
       <c r="H55" t="n">
-        <v>1868</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="56">
@@ -1887,25 +1887,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44500.40138888889</v>
+        <v>44500.4125</v>
       </c>
       <c r="C56" t="n">
+        <v>4499</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5460</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1351</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8033</v>
+      </c>
+      <c r="H56" t="n">
         <v>2135</v>
-      </c>
-      <c r="D56" t="n">
-        <v>670</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1690</v>
-      </c>
-      <c r="F56" t="n">
-        <v>649</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1700</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3374</v>
       </c>
     </row>
     <row r="57">
@@ -1913,25 +1913,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44500.40694444445</v>
+        <v>44500.41805555556</v>
       </c>
       <c r="C57" t="n">
-        <v>5460</v>
+        <v>3647</v>
       </c>
       <c r="D57" t="n">
-        <v>846</v>
+        <v>1671</v>
       </c>
       <c r="E57" t="n">
-        <v>4499</v>
+        <v>1690</v>
       </c>
       <c r="F57" t="n">
-        <v>5507</v>
+        <v>971</v>
       </c>
       <c r="G57" t="n">
-        <v>4414</v>
+        <v>6328</v>
       </c>
       <c r="H57" t="n">
-        <v>115</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58">
@@ -1939,25 +1939,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44500.4125</v>
+        <v>44500.42361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>604</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>1868</v>
       </c>
       <c r="E58" t="n">
-        <v>3538</v>
+        <v>1072</v>
       </c>
       <c r="F58" t="n">
-        <v>2102</v>
+        <v>5940</v>
       </c>
       <c r="G58" t="n">
-        <v>2168</v>
+        <v>1619</v>
       </c>
       <c r="H58" t="n">
-        <v>1619</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
@@ -1965,25 +1965,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44500.41805555556</v>
+        <v>44500.42916666667</v>
       </c>
       <c r="C59" t="n">
-        <v>114</v>
+        <v>2659</v>
       </c>
       <c r="D59" t="n">
-        <v>1072</v>
+        <v>1700</v>
       </c>
       <c r="E59" t="n">
+        <v>3538</v>
+      </c>
+      <c r="F59" t="n">
+        <v>604</v>
+      </c>
+      <c r="G59" t="n">
         <v>254</v>
       </c>
-      <c r="F59" t="n">
-        <v>5026</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3647</v>
-      </c>
       <c r="H59" t="n">
-        <v>971</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="60">
@@ -1991,25 +1991,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44500.42361111111</v>
+        <v>44500.43472222222</v>
       </c>
       <c r="C60" t="n">
-        <v>5104</v>
+        <v>8736</v>
       </c>
       <c r="D60" t="n">
+        <v>6328</v>
+      </c>
+      <c r="E60" t="n">
         <v>8033</v>
       </c>
-      <c r="E60" t="n">
-        <v>2910</v>
-      </c>
       <c r="F60" t="n">
-        <v>2659</v>
+        <v>2102</v>
       </c>
       <c r="G60" t="n">
-        <v>3256</v>
+        <v>649</v>
       </c>
       <c r="H60" t="n">
-        <v>3859</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="61">
@@ -2017,25 +2017,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44500.42916666667</v>
+        <v>44500.43975694444</v>
       </c>
       <c r="C61" t="n">
-        <v>1351</v>
+        <v>1690</v>
       </c>
       <c r="D61" t="n">
-        <v>1671</v>
+        <v>5460</v>
       </c>
       <c r="E61" t="n">
-        <v>5940</v>
+        <v>971</v>
       </c>
       <c r="F61" t="n">
-        <v>1678</v>
+        <v>3374</v>
       </c>
       <c r="G61" t="n">
-        <v>6328</v>
+        <v>5026</v>
       </c>
       <c r="H61" t="n">
-        <v>8736</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="62">
@@ -2043,25 +2043,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44500.43472222222</v>
+        <v>44500.44479166667</v>
       </c>
       <c r="C62" t="n">
-        <v>2102</v>
+        <v>4414</v>
       </c>
       <c r="D62" t="n">
+        <v>5940</v>
+      </c>
+      <c r="E62" t="n">
+        <v>604</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3647</v>
+      </c>
+      <c r="G62" t="n">
+        <v>115</v>
+      </c>
+      <c r="H62" t="n">
         <v>114</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5419</v>
-      </c>
-      <c r="F62" t="n">
-        <v>115</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3374</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1619</v>
       </c>
     </row>
     <row r="63">
@@ -2069,25 +2069,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44500.43975694444</v>
+        <v>44500.44982638889</v>
       </c>
       <c r="C63" t="n">
-        <v>971</v>
+        <v>5104</v>
       </c>
       <c r="D63" t="n">
-        <v>3859</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>5460</v>
+        <v>670</v>
       </c>
       <c r="F63" t="n">
+        <v>3476</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1671</v>
+      </c>
+      <c r="H63" t="n">
         <v>1868</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5026</v>
-      </c>
-      <c r="H63" t="n">
-        <v>604</v>
       </c>
     </row>
     <row r="64">
@@ -2095,25 +2095,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44500.44479166667</v>
+        <v>44500.45486111111</v>
       </c>
       <c r="C64" t="n">
-        <v>1072</v>
+        <v>1619</v>
       </c>
       <c r="D64" t="n">
-        <v>5940</v>
+        <v>2910</v>
       </c>
       <c r="E64" t="n">
-        <v>1690</v>
+        <v>2659</v>
       </c>
       <c r="F64" t="n">
-        <v>1671</v>
+        <v>8736</v>
       </c>
       <c r="G64" t="n">
-        <v>670</v>
+        <v>2135</v>
       </c>
       <c r="H64" t="n">
-        <v>2910</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65">
@@ -2121,25 +2121,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44500.44982638889</v>
+        <v>44500.45989583333</v>
       </c>
       <c r="C65" t="n">
-        <v>4414</v>
+        <v>4499</v>
       </c>
       <c r="D65" t="n">
-        <v>8033</v>
+        <v>846</v>
       </c>
       <c r="E65" t="n">
-        <v>973</v>
+        <v>1072</v>
       </c>
       <c r="F65" t="n">
-        <v>1351</v>
+        <v>3538</v>
       </c>
       <c r="G65" t="n">
-        <v>5507</v>
+        <v>1678</v>
       </c>
       <c r="H65" t="n">
-        <v>2168</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66">
@@ -2147,51 +2147,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44500.45486111111</v>
+        <v>44500.46493055556</v>
       </c>
       <c r="C66" t="n">
-        <v>3476</v>
+        <v>5419</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>1700</v>
       </c>
       <c r="E66" t="n">
-        <v>5104</v>
+        <v>5507</v>
       </c>
       <c r="F66" t="n">
-        <v>1678</v>
+        <v>973</v>
       </c>
       <c r="G66" t="n">
-        <v>649</v>
+        <v>3859</v>
       </c>
       <c r="H66" t="n">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>44500.45989583333</v>
-      </c>
-      <c r="C67" t="n">
-        <v>846</v>
-      </c>
-      <c r="D67" t="n">
-        <v>254</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8736</v>
-      </c>
-      <c r="F67" t="n">
-        <v>4499</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3538</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1700</v>
+        <v>2102</v>
       </c>
     </row>
   </sheetData>
@@ -2262,103 +2236,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44499.42291666667</v>
+        <v>44499.44166666667</v>
       </c>
       <c r="C2" t="n">
-        <v>1351</v>
+        <v>2659</v>
       </c>
       <c r="D2" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E2" t="n">
         <v>254</v>
       </c>
-      <c r="E2" t="n">
-        <v>3476</v>
-      </c>
       <c r="F2" t="n">
-        <v>2168</v>
+        <v>4414</v>
       </c>
       <c r="G2" t="n">
-        <v>2910</v>
+        <v>846</v>
       </c>
       <c r="H2" t="n">
-        <v>604</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44499.45416666667</v>
+        <v>44499.45989583333</v>
       </c>
       <c r="C3" t="n">
-        <v>1678</v>
+        <v>1690</v>
       </c>
       <c r="D3" t="n">
+        <v>5940</v>
+      </c>
+      <c r="E3" t="n">
+        <v>254</v>
+      </c>
+      <c r="F3" t="n">
+        <v>846</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5460</v>
+      </c>
+      <c r="H3" t="n">
         <v>3859</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1671</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5419</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2659</v>
-      </c>
-      <c r="H3" t="n">
-        <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44499.49427083333</v>
+        <v>44499.553125</v>
       </c>
       <c r="C4" t="n">
-        <v>2910</v>
+        <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>3256</v>
+        <v>846</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>649</v>
       </c>
       <c r="F4" t="n">
-        <v>971</v>
+        <v>2168</v>
       </c>
       <c r="G4" t="n">
-        <v>5940</v>
+        <v>5507</v>
       </c>
       <c r="H4" t="n">
-        <v>254</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44499.57604166667</v>
+        <v>44499.5921875</v>
       </c>
       <c r="C5" t="n">
-        <v>3374</v>
+        <v>604</v>
       </c>
       <c r="D5" t="n">
-        <v>8736</v>
+        <v>1678</v>
       </c>
       <c r="E5" t="n">
-        <v>1351</v>
+        <v>5104</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>973</v>
       </c>
       <c r="G5" t="n">
-        <v>5460</v>
+        <v>8033</v>
       </c>
       <c r="H5" t="n">
         <v>254</v>
@@ -2366,28 +2340,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44499.61302083333</v>
+        <v>44499.66666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>649</v>
+        <v>1868</v>
       </c>
       <c r="D6" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2102</v>
+      </c>
+      <c r="F6" t="n">
         <v>254</v>
       </c>
-      <c r="E6" t="n">
-        <v>2135</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5940</v>
-      </c>
       <c r="G6" t="n">
-        <v>115</v>
+        <v>4414</v>
       </c>
       <c r="H6" t="n">
-        <v>1678</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="7">
@@ -2398,74 +2372,74 @@
         <v>44499.69791666666</v>
       </c>
       <c r="C7" t="n">
-        <v>1868</v>
+        <v>5026</v>
       </c>
       <c r="D7" t="n">
-        <v>1678</v>
+        <v>971</v>
       </c>
       <c r="E7" t="n">
+        <v>115</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
         <v>254</v>
-      </c>
-      <c r="F7" t="n">
-        <v>114</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2659</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44499.71875</v>
+        <v>44499.72916666666</v>
       </c>
       <c r="C8" t="n">
-        <v>1868</v>
+        <v>254</v>
       </c>
       <c r="D8" t="n">
-        <v>8033</v>
+        <v>3374</v>
       </c>
       <c r="E8" t="n">
-        <v>1619</v>
+        <v>2102</v>
       </c>
       <c r="F8" t="n">
-        <v>1690</v>
+        <v>649</v>
       </c>
       <c r="G8" t="n">
-        <v>254</v>
+        <v>5419</v>
       </c>
       <c r="H8" t="n">
-        <v>1671</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44499.75</v>
+        <v>44499.76041666666</v>
       </c>
       <c r="C9" t="n">
-        <v>2135</v>
+        <v>3374</v>
       </c>
       <c r="D9" t="n">
-        <v>2102</v>
+        <v>4499</v>
       </c>
       <c r="E9" t="n">
+        <v>114</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1351</v>
+      </c>
+      <c r="G9" t="n">
+        <v>254</v>
+      </c>
+      <c r="H9" t="n">
         <v>3647</v>
-      </c>
-      <c r="F9" t="n">
-        <v>254</v>
-      </c>
-      <c r="G9" t="n">
-        <v>973</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5507</v>
       </c>
     </row>
     <row r="10">
@@ -2473,51 +2447,51 @@
         <v>58</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44500.41805555556</v>
+        <v>44500.42916666667</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>2659</v>
       </c>
       <c r="D10" t="n">
-        <v>1072</v>
+        <v>1700</v>
       </c>
       <c r="E10" t="n">
+        <v>3538</v>
+      </c>
+      <c r="F10" t="n">
+        <v>604</v>
+      </c>
+      <c r="G10" t="n">
         <v>254</v>
       </c>
-      <c r="F10" t="n">
-        <v>5026</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3647</v>
-      </c>
       <c r="H10" t="n">
-        <v>971</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44500.45989583333</v>
+        <v>44500.45486111111</v>
       </c>
       <c r="C11" t="n">
-        <v>846</v>
+        <v>1619</v>
       </c>
       <c r="D11" t="n">
+        <v>2910</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2659</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8736</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2135</v>
+      </c>
+      <c r="H11" t="n">
         <v>254</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8736</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4499</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3538</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1700</v>
       </c>
     </row>
   </sheetData>
